--- a/Data/log.xlsx
+++ b/Data/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BFE331-0F91-468F-BCA3-2F41BCE7636C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8540EA8-4CCB-42F3-8F6D-23C09E54BB15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{CD95BF0C-4912-4F94-98F3-164E5F52D907}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="16200" windowHeight="9240" xr2:uid="{CD95BF0C-4912-4F94-98F3-164E5F52D907}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Validado</t>
-  </si>
-  <si>
-    <t>Validado INE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>solicitud de parentezco</t>
   </si>
@@ -434,39 +428,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
